--- a/data/pca/factorExposure/factorExposure_2017-02-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01293796606539708</v>
+        <v>0.01162149974615252</v>
       </c>
       <c r="C2">
-        <v>-0.02002194352479677</v>
+        <v>-0.04102563015790019</v>
       </c>
       <c r="D2">
-        <v>0.02211528087267482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03020482027990415</v>
+      </c>
+      <c r="E2">
+        <v>-0.04158067074310258</v>
+      </c>
+      <c r="F2">
+        <v>0.008003137678509508</v>
+      </c>
+      <c r="G2">
+        <v>-0.1100673826345167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02394430449920268</v>
+        <v>0.03835623833072915</v>
       </c>
       <c r="C3">
-        <v>0.0001991964136129452</v>
+        <v>-0.101306453875864</v>
       </c>
       <c r="D3">
-        <v>0.09067919969951672</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.01786813446453294</v>
+      </c>
+      <c r="E3">
+        <v>-0.101993663266465</v>
+      </c>
+      <c r="F3">
+        <v>0.02249258727630501</v>
+      </c>
+      <c r="G3">
+        <v>-0.1408721570516485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02893235781606184</v>
+        <v>0.05510053204302404</v>
       </c>
       <c r="C4">
-        <v>-0.01132091733024402</v>
+        <v>-0.06702226540038965</v>
       </c>
       <c r="D4">
-        <v>0.07917081610497208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0250675158971866</v>
+      </c>
+      <c r="E4">
+        <v>-0.04024078585935688</v>
+      </c>
+      <c r="F4">
+        <v>0.0004201989925017686</v>
+      </c>
+      <c r="G4">
+        <v>-0.1034458797584164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.005163569509619913</v>
+        <v>0.03478664060676394</v>
       </c>
       <c r="C6">
-        <v>-0.01408157471756553</v>
+        <v>-0.05133310625591697</v>
       </c>
       <c r="D6">
-        <v>0.06425558048324462</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01758443868351209</v>
+      </c>
+      <c r="E6">
+        <v>-0.04377967003208413</v>
+      </c>
+      <c r="F6">
+        <v>0.0007383720055207051</v>
+      </c>
+      <c r="G6">
+        <v>-0.0868511016877294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.004976668859980385</v>
+        <v>0.02069650761439687</v>
       </c>
       <c r="C7">
-        <v>-0.01495267784967776</v>
+        <v>-0.0396281790776992</v>
       </c>
       <c r="D7">
-        <v>0.03652658137057979</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0141222793610534</v>
+      </c>
+      <c r="E7">
+        <v>-0.006708877436474438</v>
+      </c>
+      <c r="F7">
+        <v>0.005220279714633263</v>
+      </c>
+      <c r="G7">
+        <v>-0.1246692562868633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.004813952437604133</v>
+        <v>0.003390700191243233</v>
       </c>
       <c r="C8">
-        <v>-0.002674850632494117</v>
+        <v>-0.02393765900626368</v>
       </c>
       <c r="D8">
-        <v>-0.01060653982803939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.003978402042296177</v>
+      </c>
+      <c r="E8">
+        <v>-0.03235850020813492</v>
+      </c>
+      <c r="F8">
+        <v>0.002847624997446444</v>
+      </c>
+      <c r="G8">
+        <v>-0.07213007745064594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.007408898543976407</v>
+        <v>0.03274022565821946</v>
       </c>
       <c r="C9">
-        <v>-0.01184476306687916</v>
+        <v>-0.04867812986803575</v>
       </c>
       <c r="D9">
-        <v>0.04921994237967046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.01657131396198724</v>
+      </c>
+      <c r="E9">
+        <v>-0.02630818634461138</v>
+      </c>
+      <c r="F9">
+        <v>7.510368412978276e-05</v>
+      </c>
+      <c r="G9">
+        <v>-0.105479965567903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1464084790503344</v>
+        <v>0.09931818477195899</v>
       </c>
       <c r="C10">
-        <v>0.07181352655081244</v>
+        <v>0.1820924827905796</v>
       </c>
       <c r="D10">
-        <v>-0.1326523663838076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01572243025416856</v>
+      </c>
+      <c r="E10">
+        <v>-0.01829412788765376</v>
+      </c>
+      <c r="F10">
+        <v>0.02438816198325615</v>
+      </c>
+      <c r="G10">
+        <v>-0.05308729345865764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.003228151213859972</v>
+        <v>0.03464990001433305</v>
       </c>
       <c r="C11">
-        <v>0.0003870707128175865</v>
+        <v>-0.05217728030675409</v>
       </c>
       <c r="D11">
-        <v>0.04700918509169906</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.002724414476110944</v>
+      </c>
+      <c r="E11">
+        <v>-0.02242802269579077</v>
+      </c>
+      <c r="F11">
+        <v>-0.01464204755981601</v>
+      </c>
+      <c r="G11">
+        <v>-0.09039793750499392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.007241779303509069</v>
+        <v>0.03722100304013463</v>
       </c>
       <c r="C12">
-        <v>-0.003062992643151647</v>
+        <v>-0.04711697872634136</v>
       </c>
       <c r="D12">
-        <v>0.04230346504028097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.00662703712517069</v>
+      </c>
+      <c r="E12">
+        <v>-0.009806381470464722</v>
+      </c>
+      <c r="F12">
+        <v>0.0008086859770303139</v>
+      </c>
+      <c r="G12">
+        <v>-0.08247189048529696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.00950362268718434</v>
+        <v>0.01351081593321773</v>
       </c>
       <c r="C13">
-        <v>-0.01930462574209782</v>
+        <v>-0.04153085835220754</v>
       </c>
       <c r="D13">
-        <v>0.02803279636952104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02718257960348746</v>
+      </c>
+      <c r="E13">
+        <v>-0.04197815271832284</v>
+      </c>
+      <c r="F13">
+        <v>0.008260455025495632</v>
+      </c>
+      <c r="G13">
+        <v>-0.1419898615002795</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.002960214848625852</v>
+        <v>0.01019587371127549</v>
       </c>
       <c r="C14">
-        <v>-0.009144255937918112</v>
+        <v>-0.02762233948383943</v>
       </c>
       <c r="D14">
-        <v>0.01740942405361373</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01030302381412529</v>
+      </c>
+      <c r="E14">
+        <v>-0.008435269867936175</v>
+      </c>
+      <c r="F14">
+        <v>0.01061463270561435</v>
+      </c>
+      <c r="G14">
+        <v>-0.1119786736142418</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.005193589852132589</v>
+        <v>0.03360271681237299</v>
       </c>
       <c r="C16">
-        <v>0.001354806004114929</v>
+        <v>-0.04563197342069082</v>
       </c>
       <c r="D16">
-        <v>0.03635540277728154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.002284369831529087</v>
+      </c>
+      <c r="E16">
+        <v>-0.01842822925847297</v>
+      </c>
+      <c r="F16">
+        <v>0.003938835529574964</v>
+      </c>
+      <c r="G16">
+        <v>-0.09289674908681531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.007660868182617943</v>
+        <v>0.02073556634778741</v>
       </c>
       <c r="C19">
-        <v>-0.01076787394647963</v>
+        <v>-0.04965646174181815</v>
       </c>
       <c r="D19">
-        <v>0.03842467988008247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.01984836842590658</v>
+      </c>
+      <c r="E19">
+        <v>-0.0870100686014527</v>
+      </c>
+      <c r="F19">
+        <v>0.002787467462674818</v>
+      </c>
+      <c r="G19">
+        <v>-0.1443114476524638</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.001080577818192987</v>
+        <v>0.0153948649440148</v>
       </c>
       <c r="C20">
-        <v>-0.01230393100652491</v>
+        <v>-0.04091249520380116</v>
       </c>
       <c r="D20">
-        <v>0.02674729108639399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.01480865043286697</v>
+      </c>
+      <c r="E20">
+        <v>-0.04013613641583835</v>
+      </c>
+      <c r="F20">
+        <v>0.02107115562449612</v>
+      </c>
+      <c r="G20">
+        <v>-0.1162341642959977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.003541613688268162</v>
+        <v>0.01012319636657137</v>
       </c>
       <c r="C21">
-        <v>-0.01571210487057671</v>
+        <v>-0.03789931320350669</v>
       </c>
       <c r="D21">
-        <v>0.003848469796719888</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01963812799884137</v>
+      </c>
+      <c r="E21">
+        <v>-0.04901735590385611</v>
+      </c>
+      <c r="F21">
+        <v>0.01332949201799038</v>
+      </c>
+      <c r="G21">
+        <v>-0.142443305273625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009796267933554323</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.006438169895904228</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.00208646657344782</v>
+      </c>
+      <c r="E22">
+        <v>-0.0165908626024399</v>
+      </c>
+      <c r="F22">
+        <v>-0.007925714846413462</v>
+      </c>
+      <c r="G22">
+        <v>-0.002862854259297872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.000984755122478377</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.006439204354448475</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.002084061753036696</v>
+      </c>
+      <c r="E23">
+        <v>-0.01656919156551452</v>
+      </c>
+      <c r="F23">
+        <v>-0.007916904114409016</v>
+      </c>
+      <c r="G23">
+        <v>-0.002763924079826147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0009769743305367774</v>
+        <v>0.02883362314259024</v>
       </c>
       <c r="C24">
-        <v>-0.006286122723963229</v>
+        <v>-0.04888612733677904</v>
       </c>
       <c r="D24">
-        <v>0.03901613430446251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.007379026851040905</v>
+      </c>
+      <c r="E24">
+        <v>-0.0166416306346151</v>
+      </c>
+      <c r="F24">
+        <v>-0.005643580416831573</v>
+      </c>
+      <c r="G24">
+        <v>-0.09262362076864286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01328557223442317</v>
+        <v>0.0421320053578122</v>
       </c>
       <c r="C25">
-        <v>-0.005942017884239247</v>
+        <v>-0.0567026847823043</v>
       </c>
       <c r="D25">
-        <v>0.05618229555841987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01143206415508595</v>
+      </c>
+      <c r="E25">
+        <v>-0.006396694700291301</v>
+      </c>
+      <c r="F25">
+        <v>-0.003249159119972647</v>
+      </c>
+      <c r="G25">
+        <v>-0.0979336427281243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004669331252013942</v>
+        <v>0.01444889800102661</v>
       </c>
       <c r="C26">
-        <v>-0.02204965064871998</v>
+        <v>-0.01143170686634075</v>
       </c>
       <c r="D26">
-        <v>-0.003483329787111236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02421567383777525</v>
+      </c>
+      <c r="E26">
+        <v>-0.008090877893129067</v>
+      </c>
+      <c r="F26">
+        <v>0.008459057484257525</v>
+      </c>
+      <c r="G26">
+        <v>-0.08598273408341948</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.196467410123355</v>
+        <v>0.1289444406384062</v>
       </c>
       <c r="C28">
-        <v>0.08003462316844907</v>
+        <v>0.2414630279252414</v>
       </c>
       <c r="D28">
-        <v>-0.1598405930986745</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.006970799594256052</v>
+      </c>
+      <c r="E28">
+        <v>-0.005735841757623813</v>
+      </c>
+      <c r="F28">
+        <v>0.0204422819031539</v>
+      </c>
+      <c r="G28">
+        <v>-0.04824655501352873</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.004066894084315156</v>
+        <v>0.009426479629035603</v>
       </c>
       <c r="C29">
-        <v>-0.005621771299133103</v>
+        <v>-0.02320919558511782</v>
       </c>
       <c r="D29">
-        <v>0.01797291459694608</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.009441131000589995</v>
+      </c>
+      <c r="E29">
+        <v>-0.002887118798082501</v>
+      </c>
+      <c r="F29">
+        <v>0.01503905031754802</v>
+      </c>
+      <c r="G29">
+        <v>-0.1016978984463599</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01104986526842241</v>
+        <v>0.03919716104523904</v>
       </c>
       <c r="C30">
-        <v>-0.02144204210261794</v>
+        <v>-0.06791510731212207</v>
       </c>
       <c r="D30">
-        <v>0.09732850531775772</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.02967204149772892</v>
+      </c>
+      <c r="E30">
+        <v>-0.07117088806606117</v>
+      </c>
+      <c r="F30">
+        <v>-0.02807147916172411</v>
+      </c>
+      <c r="G30">
+        <v>-0.1351992685786064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.02031484306161186</v>
+        <v>0.05354768810338272</v>
       </c>
       <c r="C31">
-        <v>0.003809008102695943</v>
+        <v>-0.03995163369175982</v>
       </c>
       <c r="D31">
-        <v>0.02425392856859264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.003980649502827987</v>
+      </c>
+      <c r="E31">
+        <v>0.003030146031183886</v>
+      </c>
+      <c r="F31">
+        <v>0.03760907004742591</v>
+      </c>
+      <c r="G31">
+        <v>-0.09687860850134386</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007082073927474666</v>
+        <v>0.001966925351210091</v>
       </c>
       <c r="C32">
-        <v>0.01204712397975381</v>
+        <v>-0.02247781939812851</v>
       </c>
       <c r="D32">
-        <v>0.01696424993453317</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.00227265967204945</v>
+      </c>
+      <c r="E32">
+        <v>-0.0443337335334336</v>
+      </c>
+      <c r="F32">
+        <v>-0.03145115488800202</v>
+      </c>
+      <c r="G32">
+        <v>-0.08457801179661664</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.001036766835519775</v>
+        <v>0.02731662001045158</v>
       </c>
       <c r="C33">
-        <v>-0.011969242619041</v>
+        <v>-0.05075717268514602</v>
       </c>
       <c r="D33">
-        <v>0.03505151800374028</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.01665542274614729</v>
+      </c>
+      <c r="E33">
+        <v>-0.05088547493628227</v>
+      </c>
+      <c r="F33">
+        <v>-0.006194439148755419</v>
+      </c>
+      <c r="G33">
+        <v>-0.1631274730450299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.01656214688735566</v>
+        <v>0.04065705307603846</v>
       </c>
       <c r="C34">
-        <v>0.01330268210159591</v>
+        <v>-0.05873915853793375</v>
       </c>
       <c r="D34">
-        <v>0.05627374738902511</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.004190076963209066</v>
+      </c>
+      <c r="E34">
+        <v>-0.01360100700232479</v>
+      </c>
+      <c r="F34">
+        <v>-0.01800035720069905</v>
+      </c>
+      <c r="G34">
+        <v>-0.09362574391367494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.007195242313576162</v>
+        <v>0.01613483571764261</v>
       </c>
       <c r="C36">
-        <v>-0.008478199480546076</v>
+        <v>-0.01024490283124592</v>
       </c>
       <c r="D36">
-        <v>-0.001688075219733774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01289891421852625</v>
+      </c>
+      <c r="E36">
+        <v>-0.009917679525180946</v>
+      </c>
+      <c r="F36">
+        <v>0.0100371690706201</v>
+      </c>
+      <c r="G36">
+        <v>-0.09402999330780522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01849636973471476</v>
+        <v>0.03255066909523111</v>
       </c>
       <c r="C38">
-        <v>0.01659144384754607</v>
+        <v>-0.02874037056393582</v>
       </c>
       <c r="D38">
-        <v>0.03132410889043255</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.007711554483987018</v>
+      </c>
+      <c r="E38">
+        <v>-0.005126648883903523</v>
+      </c>
+      <c r="F38">
+        <v>0.01896728064612419</v>
+      </c>
+      <c r="G38">
+        <v>-0.08649704345579483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.013984366109517</v>
+        <v>0.03649703373020196</v>
       </c>
       <c r="C39">
-        <v>-0.0157379337844603</v>
+        <v>-0.07941119766539874</v>
       </c>
       <c r="D39">
-        <v>0.09196737898582129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.01222625321211553</v>
+      </c>
+      <c r="E39">
+        <v>-0.03462193244886407</v>
+      </c>
+      <c r="F39">
+        <v>-0.01690306995549105</v>
+      </c>
+      <c r="G39">
+        <v>-0.09525845533803419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01251857397258791</v>
+        <v>0.01414454090482485</v>
       </c>
       <c r="C40">
-        <v>-0.005665570418780554</v>
+        <v>-0.03818439700079989</v>
       </c>
       <c r="D40">
-        <v>0.02022622140473644</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01500323735019489</v>
+      </c>
+      <c r="E40">
+        <v>-0.03417300307393188</v>
+      </c>
+      <c r="F40">
+        <v>0.01401613869547241</v>
+      </c>
+      <c r="G40">
+        <v>-0.1248863526959291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01208991327117712</v>
+        <v>0.02091936689357247</v>
       </c>
       <c r="C41">
-        <v>0.001753740901071795</v>
+        <v>-0.002927614455079843</v>
       </c>
       <c r="D41">
-        <v>-0.01119551148134014</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.004859615682391169</v>
+      </c>
+      <c r="E41">
+        <v>-0.009131128756964431</v>
+      </c>
+      <c r="F41">
+        <v>0.01610592646511973</v>
+      </c>
+      <c r="G41">
+        <v>-0.09017321686755009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.0218411006027435</v>
+        <v>0.005771008784596682</v>
       </c>
       <c r="C42">
-        <v>-0.08985607359647066</v>
+        <v>-0.02392243723023191</v>
       </c>
       <c r="D42">
-        <v>0.07091012996827653</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.08672802806281005</v>
+      </c>
+      <c r="E42">
+        <v>0.002239077732262934</v>
+      </c>
+      <c r="F42">
+        <v>0.03483845766801515</v>
+      </c>
+      <c r="G42">
+        <v>0.02373459860080754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.01299740151562891</v>
+        <v>0.0357226606655561</v>
       </c>
       <c r="C43">
-        <v>0.001301945460720668</v>
+        <v>-0.01896013216807179</v>
       </c>
       <c r="D43">
-        <v>-0.009178729160058741</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.006252512178090481</v>
+      </c>
+      <c r="E43">
+        <v>-0.02246137446942803</v>
+      </c>
+      <c r="F43">
+        <v>0.01249480400034291</v>
+      </c>
+      <c r="G43">
+        <v>-0.1212660252956357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.005621740264868673</v>
+        <v>0.01335246282966574</v>
       </c>
       <c r="C44">
-        <v>-0.005863425074761501</v>
+        <v>-0.05838664820417527</v>
       </c>
       <c r="D44">
-        <v>0.04661065199336758</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.007248865935521438</v>
+      </c>
+      <c r="E44">
+        <v>-0.02890782708140384</v>
+      </c>
+      <c r="F44">
+        <v>0.01555133376424572</v>
+      </c>
+      <c r="G44">
+        <v>-0.1133445124369486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0002629974934025262</v>
+        <v>0.009187454581627898</v>
       </c>
       <c r="C46">
-        <v>-0.01069466484768813</v>
+        <v>-0.01504811387540342</v>
       </c>
       <c r="D46">
-        <v>-0.005773955699640229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0125723592216895</v>
+      </c>
+      <c r="E46">
+        <v>0.002946404626160179</v>
+      </c>
+      <c r="F46">
+        <v>0.01863201784543085</v>
+      </c>
+      <c r="G46">
+        <v>-0.1080053699426467</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02746541182773657</v>
+        <v>0.0796700043933426</v>
       </c>
       <c r="C47">
-        <v>0.01428282499305049</v>
+        <v>-0.0703772424029204</v>
       </c>
       <c r="D47">
-        <v>0.06968590287683246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.005143352091515369</v>
+      </c>
+      <c r="E47">
+        <v>0.01426559124813466</v>
+      </c>
+      <c r="F47">
+        <v>0.05320528497708885</v>
+      </c>
+      <c r="G47">
+        <v>-0.08512140563157587</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004218149541366044</v>
+        <v>0.0195060528229532</v>
       </c>
       <c r="C48">
-        <v>0.0004633204927280994</v>
+        <v>-0.01294925158237107</v>
       </c>
       <c r="D48">
-        <v>0.008956394263504176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.00243463099716703</v>
+      </c>
+      <c r="E48">
+        <v>-0.004077444404143964</v>
+      </c>
+      <c r="F48">
+        <v>0.02157954151659441</v>
+      </c>
+      <c r="G48">
+        <v>-0.1031648390203714</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03985614793520725</v>
+        <v>0.07477732964887526</v>
       </c>
       <c r="C50">
-        <v>0.01838603758741598</v>
+        <v>-0.07315845441208249</v>
       </c>
       <c r="D50">
-        <v>0.05999806431857479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.002022752582331271</v>
+      </c>
+      <c r="E50">
+        <v>0.01074861498384878</v>
+      </c>
+      <c r="F50">
+        <v>0.05098697736010956</v>
+      </c>
+      <c r="G50">
+        <v>-0.09435848345653557</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.0005380332564624304</v>
+        <v>0.01277948360983073</v>
       </c>
       <c r="C51">
-        <v>-0.006412160097611629</v>
+        <v>-0.03793347708551766</v>
       </c>
       <c r="D51">
-        <v>0.02081422386672131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.01103279387913346</v>
+      </c>
+      <c r="E51">
+        <v>-0.03003602589657164</v>
+      </c>
+      <c r="F51">
+        <v>-0.01251477453110512</v>
+      </c>
+      <c r="G51">
+        <v>-0.1234190238772172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.04254876162970951</v>
+        <v>0.08125254651346354</v>
       </c>
       <c r="C53">
-        <v>0.0190856759633495</v>
+        <v>-0.08410226578098021</v>
       </c>
       <c r="D53">
-        <v>0.101731194263358</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.003472045719751034</v>
+      </c>
+      <c r="E53">
+        <v>0.03273734965286115</v>
+      </c>
+      <c r="F53">
+        <v>0.05720698402473155</v>
+      </c>
+      <c r="G53">
+        <v>-0.08696166763506986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01518750405973335</v>
+        <v>0.03290251218369437</v>
       </c>
       <c r="C54">
-        <v>0.009938354076813637</v>
+        <v>-0.01877829564889971</v>
       </c>
       <c r="D54">
-        <v>-0.003600322659167108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0009955630227737717</v>
+      </c>
+      <c r="E54">
+        <v>-0.01853809105694704</v>
+      </c>
+      <c r="F54">
+        <v>0.009880572936119159</v>
+      </c>
+      <c r="G54">
+        <v>-0.1119023407386143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.02874232514196053</v>
+        <v>0.0739160651632227</v>
       </c>
       <c r="C55">
-        <v>0.01429584917438663</v>
+        <v>-0.06717649581822573</v>
       </c>
       <c r="D55">
-        <v>0.08597829378975537</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.005200634138467165</v>
+      </c>
+      <c r="E55">
+        <v>0.03181652932875118</v>
+      </c>
+      <c r="F55">
+        <v>0.05501931189693636</v>
+      </c>
+      <c r="G55">
+        <v>-0.06529778695807462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.06940903564674387</v>
+        <v>0.1362367938290946</v>
       </c>
       <c r="C56">
-        <v>0.03612997228966822</v>
+        <v>-0.1060002715818597</v>
       </c>
       <c r="D56">
-        <v>0.1511367608772881</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01298192994129176</v>
+      </c>
+      <c r="E56">
+        <v>0.0402348648733645</v>
+      </c>
+      <c r="F56">
+        <v>0.06960327622088217</v>
+      </c>
+      <c r="G56">
+        <v>-0.03865952052744866</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01345190541028447</v>
+        <v>0.004288382003036686</v>
       </c>
       <c r="C57">
-        <v>-0.01827678316378174</v>
+        <v>-0.005788732009007199</v>
       </c>
       <c r="D57">
-        <v>0.02181115463689488</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02273900860565948</v>
+      </c>
+      <c r="E57">
+        <v>-0.0246584783952158</v>
+      </c>
+      <c r="F57">
+        <v>-0.001982856939220612</v>
+      </c>
+      <c r="G57">
+        <v>-0.02011599048505183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.002662554958438322</v>
+        <v>0.04610271454496834</v>
       </c>
       <c r="C58">
-        <v>0.0002749673708372124</v>
+        <v>-0.0431094054901356</v>
       </c>
       <c r="D58">
-        <v>0.1358033788656719</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02339504970877887</v>
+      </c>
+      <c r="E58">
+        <v>-0.8387798904808369</v>
+      </c>
+      <c r="F58">
+        <v>0.4391321965936379</v>
+      </c>
+      <c r="G58">
+        <v>0.2450602567334256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.2255004919368552</v>
+        <v>0.1595024214669229</v>
       </c>
       <c r="C59">
-        <v>0.09828557848693292</v>
+        <v>0.205958176152177</v>
       </c>
       <c r="D59">
-        <v>-0.1367350015666993</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.01139644590417311</v>
+      </c>
+      <c r="E59">
+        <v>-0.02451172432020446</v>
+      </c>
+      <c r="F59">
+        <v>0.005438593572001261</v>
+      </c>
+      <c r="G59">
+        <v>-0.03394706933128058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2325544397948744</v>
+        <v>0.2876486913934623</v>
       </c>
       <c r="C60">
-        <v>0.08281382943337713</v>
+        <v>-0.1157386562027684</v>
       </c>
       <c r="D60">
-        <v>0.1946393741964679</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.01356165067971532</v>
+      </c>
+      <c r="E60">
+        <v>-0.07531440101445719</v>
+      </c>
+      <c r="F60">
+        <v>-0.3388551480434603</v>
+      </c>
+      <c r="G60">
+        <v>0.1587283362819308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002258087721276818</v>
+        <v>0.03899952979962905</v>
       </c>
       <c r="C61">
-        <v>-0.004618256843666996</v>
+        <v>-0.06446038656357847</v>
       </c>
       <c r="D61">
-        <v>0.07039593586623197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.006112365530146432</v>
+      </c>
+      <c r="E61">
+        <v>-0.02990766443175627</v>
+      </c>
+      <c r="F61">
+        <v>-0.009375457598035901</v>
+      </c>
+      <c r="G61">
+        <v>-0.1031273142545736</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.002324003508595937</v>
+        <v>0.01447996227717731</v>
       </c>
       <c r="C63">
-        <v>-0.007035252249441971</v>
+        <v>-0.03022304547928976</v>
       </c>
       <c r="D63">
-        <v>0.02107402402301159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008804254771753107</v>
+      </c>
+      <c r="E63">
+        <v>-0.004669648329838822</v>
+      </c>
+      <c r="F63">
+        <v>0.01536827519745206</v>
+      </c>
+      <c r="G63">
+        <v>-0.09409363034434655</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02653084177245665</v>
+        <v>0.04910891147846915</v>
       </c>
       <c r="C64">
-        <v>0.005936029604472721</v>
+        <v>-0.04624917735834876</v>
       </c>
       <c r="D64">
-        <v>0.04959606229555742</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.006344146284854137</v>
+      </c>
+      <c r="E64">
+        <v>-0.004350313168039501</v>
+      </c>
+      <c r="F64">
+        <v>-0.003415887296372706</v>
+      </c>
+      <c r="G64">
+        <v>-0.1016344465600848</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.03799562279595452</v>
+        <v>0.07392531848581718</v>
       </c>
       <c r="C65">
-        <v>-0.001526137538053759</v>
+        <v>-0.0603919946653879</v>
       </c>
       <c r="D65">
-        <v>0.1123467353642979</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01722182394124289</v>
+      </c>
+      <c r="E65">
+        <v>-0.04880266307946265</v>
+      </c>
+      <c r="F65">
+        <v>-0.01671826293688083</v>
+      </c>
+      <c r="G65">
+        <v>-0.04374215945570926</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.01249251927484894</v>
+        <v>0.0480728398719979</v>
       </c>
       <c r="C66">
-        <v>-0.01473551321436768</v>
+        <v>-0.1061617293862876</v>
       </c>
       <c r="D66">
-        <v>0.1325525916381431</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.01247872945492542</v>
+      </c>
+      <c r="E66">
+        <v>-0.05061016487691426</v>
+      </c>
+      <c r="F66">
+        <v>-0.0245535551138407</v>
+      </c>
+      <c r="G66">
+        <v>-0.105206619128057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04116902844219612</v>
+        <v>0.05577572398342094</v>
       </c>
       <c r="C67">
-        <v>0.0227677066222527</v>
+        <v>-0.03377561344686523</v>
       </c>
       <c r="D67">
-        <v>0.05214149510578342</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.006249819792382937</v>
+      </c>
+      <c r="E67">
+        <v>0.005785869256881995</v>
+      </c>
+      <c r="F67">
+        <v>0.01541913593972199</v>
+      </c>
+      <c r="G67">
+        <v>-0.07309202573770647</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2281410799289331</v>
+        <v>0.15919400860503</v>
       </c>
       <c r="C68">
-        <v>0.07839142845877028</v>
+        <v>0.2714877908317714</v>
       </c>
       <c r="D68">
-        <v>-0.1950024867985068</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.004739218510789593</v>
+      </c>
+      <c r="E68">
+        <v>-0.002039770233240052</v>
+      </c>
+      <c r="F68">
+        <v>0.04660547534586795</v>
+      </c>
+      <c r="G68">
+        <v>-0.02308339145577009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03407878952671115</v>
+        <v>0.08207041430438167</v>
       </c>
       <c r="C69">
-        <v>0.02122339181712556</v>
+        <v>-0.0742943310899601</v>
       </c>
       <c r="D69">
-        <v>0.07296381271546057</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008892116607587755</v>
+      </c>
+      <c r="E69">
+        <v>0.02653849629796649</v>
+      </c>
+      <c r="F69">
+        <v>0.03262933906153917</v>
+      </c>
+      <c r="G69">
+        <v>-0.09835420497370435</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1971327857556633</v>
+        <v>0.1443151472419607</v>
       </c>
       <c r="C71">
-        <v>0.07619147443929455</v>
+        <v>0.2290900300673797</v>
       </c>
       <c r="D71">
-        <v>-0.1416750354935154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.002903478491951285</v>
+      </c>
+      <c r="E71">
+        <v>-0.03144418832278622</v>
+      </c>
+      <c r="F71">
+        <v>0.03084942754461215</v>
+      </c>
+      <c r="G71">
+        <v>-0.0687568459318926</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.02919602110875331</v>
+        <v>0.08720984453409403</v>
       </c>
       <c r="C72">
-        <v>0.02034563536438911</v>
+        <v>-0.0698659944393423</v>
       </c>
       <c r="D72">
-        <v>0.09032830681496515</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.008274964849969651</v>
+      </c>
+      <c r="E72">
+        <v>0.006164203267682077</v>
+      </c>
+      <c r="F72">
+        <v>-0.03454460413891947</v>
+      </c>
+      <c r="G72">
+        <v>-0.09435052614875236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.308605915929927</v>
+        <v>0.372135664960471</v>
       </c>
       <c r="C73">
-        <v>0.1071847692455622</v>
+        <v>-0.1213817259227525</v>
       </c>
       <c r="D73">
-        <v>0.2942073287776941</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.02374873718869183</v>
+      </c>
+      <c r="E73">
+        <v>-0.188497252722545</v>
+      </c>
+      <c r="F73">
+        <v>-0.5596107913118959</v>
+      </c>
+      <c r="G73">
+        <v>0.2953878914862974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.057428641111298</v>
+        <v>0.1041872515723391</v>
       </c>
       <c r="C74">
-        <v>0.03122076567685832</v>
+        <v>-0.1096115912060613</v>
       </c>
       <c r="D74">
-        <v>0.1603326574573113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.009476058413007407</v>
+      </c>
+      <c r="E74">
+        <v>0.01704003826051524</v>
+      </c>
+      <c r="F74">
+        <v>0.06365549304873842</v>
+      </c>
+      <c r="G74">
+        <v>-0.0699403378603287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1494675705047706</v>
+        <v>0.247299573310008</v>
       </c>
       <c r="C75">
-        <v>0.07680537890227043</v>
+        <v>-0.1522629925276166</v>
       </c>
       <c r="D75">
-        <v>0.2751464511483298</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03133379110205219</v>
+      </c>
+      <c r="E75">
+        <v>0.09270563411734284</v>
+      </c>
+      <c r="F75">
+        <v>0.1530498126332654</v>
+      </c>
+      <c r="G75">
+        <v>0.02668942144147264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.06119554370399284</v>
+        <v>0.115516620826501</v>
       </c>
       <c r="C76">
-        <v>0.03837100356516548</v>
+        <v>-0.1105691372461085</v>
       </c>
       <c r="D76">
-        <v>0.1777741791678059</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.017537733323035</v>
+      </c>
+      <c r="E76">
+        <v>0.04083163916201657</v>
+      </c>
+      <c r="F76">
+        <v>0.08949891180450452</v>
+      </c>
+      <c r="G76">
+        <v>-0.05115501904624145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.02345931307461136</v>
+        <v>0.07132601706887003</v>
       </c>
       <c r="C77">
-        <v>0.0004895958996613589</v>
+        <v>-0.05751791958352118</v>
       </c>
       <c r="D77">
-        <v>0.07942259326888915</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.009980877083601914</v>
+      </c>
+      <c r="E77">
+        <v>-0.05128494766302331</v>
+      </c>
+      <c r="F77">
+        <v>0.004410446151957725</v>
+      </c>
+      <c r="G77">
+        <v>-0.07358161085469371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.01686522936796701</v>
+        <v>0.04148220313537368</v>
       </c>
       <c r="C78">
-        <v>0.003336792825852158</v>
+        <v>-0.05205247004154871</v>
       </c>
       <c r="D78">
-        <v>0.06400214684982274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.006614600215497177</v>
+      </c>
+      <c r="E78">
+        <v>-0.03744638094375583</v>
+      </c>
+      <c r="F78">
+        <v>-0.03022102510118582</v>
+      </c>
+      <c r="G78">
+        <v>-0.1031190403313082</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0009499966745423707</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>5.533500079577848e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0003513312557728733</v>
+      </c>
+      <c r="E79">
+        <v>-0.004129213653097914</v>
+      </c>
+      <c r="F79">
+        <v>-0.0008991447198596735</v>
+      </c>
+      <c r="G79">
+        <v>-0.002910924981818497</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03516825308828297</v>
+        <v>0.04317738406386922</v>
       </c>
       <c r="C80">
-        <v>0.00290249075951917</v>
+        <v>-0.05024243774413354</v>
       </c>
       <c r="D80">
-        <v>0.08002229001706131</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01331348670905626</v>
+      </c>
+      <c r="E80">
+        <v>-0.02744303952842352</v>
+      </c>
+      <c r="F80">
+        <v>-0.002198234967802495</v>
+      </c>
+      <c r="G80">
+        <v>-0.05038702995005237</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.07219373406611693</v>
+        <v>0.1379265960457167</v>
       </c>
       <c r="C81">
-        <v>0.03712242957785387</v>
+        <v>-0.09755736100502677</v>
       </c>
       <c r="D81">
-        <v>0.1516648869814693</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01525248102688898</v>
+      </c>
+      <c r="E81">
+        <v>0.0568282121490531</v>
+      </c>
+      <c r="F81">
+        <v>0.1194008391336982</v>
+      </c>
+      <c r="G81">
+        <v>-0.02014769542874188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.006426217642845481</v>
+        <v>0.1471483059910586</v>
       </c>
       <c r="C82">
-        <v>0.002765049709472083</v>
+        <v>-0.08471616456660028</v>
       </c>
       <c r="D82">
-        <v>0.00702315454775021</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.01194490510933873</v>
+      </c>
+      <c r="E82">
+        <v>0.1275083652207627</v>
+      </c>
+      <c r="F82">
+        <v>0.04759278239032137</v>
+      </c>
+      <c r="G82">
+        <v>-0.0658273217130365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01284946989907087</v>
+        <v>0.03434329939144398</v>
       </c>
       <c r="C83">
-        <v>0.001238414499282379</v>
+        <v>-0.03136048061591958</v>
       </c>
       <c r="D83">
-        <v>0.02008952709130755</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.006476111319348252</v>
+      </c>
+      <c r="E83">
+        <v>-0.03420046124223709</v>
+      </c>
+      <c r="F83">
+        <v>-0.02684597372340113</v>
+      </c>
+      <c r="G83">
+        <v>-0.0624983310047566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1437508349784767</v>
+        <v>0.2079014669380998</v>
       </c>
       <c r="C85">
-        <v>0.06189296839333887</v>
+        <v>-0.148279964304998</v>
       </c>
       <c r="D85">
-        <v>0.2617550744593602</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01695689460057667</v>
+      </c>
+      <c r="E85">
+        <v>0.1145144555822632</v>
+      </c>
+      <c r="F85">
+        <v>0.08880235038539626</v>
+      </c>
+      <c r="G85">
+        <v>0.06601973700525603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008854092576499054</v>
+        <v>0.0133133483766333</v>
       </c>
       <c r="C86">
-        <v>-0.001653242556550345</v>
+        <v>-0.02679583836146548</v>
       </c>
       <c r="D86">
-        <v>0.03126382235654549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.01139338697960226</v>
+      </c>
+      <c r="E86">
+        <v>-0.05252216140696669</v>
+      </c>
+      <c r="F86">
+        <v>-0.005935470234428875</v>
+      </c>
+      <c r="G86">
+        <v>-0.1820757520052395</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01007055801996166</v>
+        <v>0.02137203071849555</v>
       </c>
       <c r="C87">
-        <v>-0.01324620185986317</v>
+        <v>-0.01748949563355452</v>
       </c>
       <c r="D87">
-        <v>0.02545926319897442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.01239675364409488</v>
+      </c>
+      <c r="E87">
+        <v>-0.09878352438505811</v>
+      </c>
+      <c r="F87">
+        <v>0.01547657559525611</v>
+      </c>
+      <c r="G87">
+        <v>-0.1251104837028599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04206211025109589</v>
+        <v>0.09200797786017335</v>
       </c>
       <c r="C88">
-        <v>-0.006931042302396251</v>
+        <v>-0.07165559868627409</v>
       </c>
       <c r="D88">
-        <v>0.03841127761131755</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02221980348994938</v>
+      </c>
+      <c r="E88">
+        <v>0.006381860711346971</v>
+      </c>
+      <c r="F88">
+        <v>0.02060693944932724</v>
+      </c>
+      <c r="G88">
+        <v>-0.09978576040384614</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3387119359798549</v>
+        <v>0.2344226842763807</v>
       </c>
       <c r="C89">
-        <v>0.1257699554216442</v>
+        <v>0.3640689949258129</v>
       </c>
       <c r="D89">
-        <v>-0.2488142287575258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-6.877097530705065e-05</v>
+      </c>
+      <c r="E89">
+        <v>0.02486789284999713</v>
+      </c>
+      <c r="F89">
+        <v>0.01933544527789229</v>
+      </c>
+      <c r="G89">
+        <v>-0.07686667652752381</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2859157212292625</v>
+        <v>0.2122605357150672</v>
       </c>
       <c r="C90">
-        <v>0.1094757834431626</v>
+        <v>0.3154000029996701</v>
       </c>
       <c r="D90">
-        <v>-0.2153378110725614</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.004827317145770643</v>
+      </c>
+      <c r="E90">
+        <v>0.003845220156361049</v>
+      </c>
+      <c r="F90">
+        <v>0.04898340845571385</v>
+      </c>
+      <c r="G90">
+        <v>-0.04833968598464181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1122180831368105</v>
+        <v>0.1842296457598677</v>
       </c>
       <c r="C91">
-        <v>0.06070334498088677</v>
+        <v>-0.1395217797958373</v>
       </c>
       <c r="D91">
-        <v>0.1927707478363436</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0224314286158965</v>
+      </c>
+      <c r="E91">
+        <v>0.08702839362440733</v>
+      </c>
+      <c r="F91">
+        <v>0.1224433146499646</v>
+      </c>
+      <c r="G91">
+        <v>-0.02339379108308463</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2576400117455783</v>
+        <v>0.198694605026516</v>
       </c>
       <c r="C92">
-        <v>0.1340684722171202</v>
+        <v>0.2571288131318094</v>
       </c>
       <c r="D92">
-        <v>-0.1317257207624718</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03875771895226146</v>
+      </c>
+      <c r="E92">
+        <v>-0.02178054041403232</v>
+      </c>
+      <c r="F92">
+        <v>0.06141314258702875</v>
+      </c>
+      <c r="G92">
+        <v>-0.09376518436044634</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.3127673284085536</v>
+        <v>0.2356536598428996</v>
       </c>
       <c r="C93">
-        <v>0.1270700357766132</v>
+        <v>0.3119644712715734</v>
       </c>
       <c r="D93">
-        <v>-0.1750291797489337</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01135280295614819</v>
+      </c>
+      <c r="E93">
+        <v>-0.003802575214872323</v>
+      </c>
+      <c r="F93">
+        <v>0.03977306017175319</v>
+      </c>
+      <c r="G93">
+        <v>-0.05839880045985761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1575509769825779</v>
+        <v>0.3188638406376931</v>
       </c>
       <c r="C94">
-        <v>0.05842556622955873</v>
+        <v>-0.1895814242311072</v>
       </c>
       <c r="D94">
-        <v>0.2800044589664495</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.020867670154566</v>
+      </c>
+      <c r="E94">
+        <v>0.305683307590392</v>
+      </c>
+      <c r="F94">
+        <v>0.4281432439886282</v>
+      </c>
+      <c r="G94">
+        <v>0.3989030268674798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.02259879848710309</v>
+        <v>0.09427730394634397</v>
       </c>
       <c r="C95">
-        <v>0.01816030554577958</v>
+        <v>-0.08308499587603402</v>
       </c>
       <c r="D95">
-        <v>0.1248211862194125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.009331285654534839</v>
+      </c>
+      <c r="E95">
+        <v>-0.1050858794277378</v>
+      </c>
+      <c r="F95">
+        <v>-0.1580531290217762</v>
+      </c>
+      <c r="G95">
+        <v>-0.03845408249508261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1510670958243124</v>
+        <v>0.1905372460140314</v>
       </c>
       <c r="C98">
-        <v>0.07736494442958854</v>
+        <v>-0.0480353002210157</v>
       </c>
       <c r="D98">
-        <v>0.1167320304077404</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01144505182619109</v>
+      </c>
+      <c r="E98">
+        <v>-0.118685313611701</v>
+      </c>
+      <c r="F98">
+        <v>-0.2222820029650486</v>
+      </c>
+      <c r="G98">
+        <v>0.02231842123445286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.003694717980156526</v>
+        <v>0.009268247455430687</v>
       </c>
       <c r="C101">
-        <v>-0.005621086223201696</v>
+        <v>-0.02308604110281328</v>
       </c>
       <c r="D101">
-        <v>0.01822621254993007</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.009267316253720867</v>
+      </c>
+      <c r="E101">
+        <v>-0.00251757337451188</v>
+      </c>
+      <c r="F101">
+        <v>0.01593560243231294</v>
+      </c>
+      <c r="G101">
+        <v>-0.1012667273152348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.07961950745792816</v>
+        <v>0.1169579424175154</v>
       </c>
       <c r="C102">
-        <v>0.02663543790908932</v>
+        <v>-0.08254553699243351</v>
       </c>
       <c r="D102">
-        <v>0.1332259289321463</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0006567659087059274</v>
+      </c>
+      <c r="E102">
+        <v>0.04119166782874448</v>
+      </c>
+      <c r="F102">
+        <v>0.03315705181218441</v>
+      </c>
+      <c r="G102">
+        <v>-0.0166028709622145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.3751696910050203</v>
+        <v>0.02134203086615129</v>
       </c>
       <c r="C104">
-        <v>-0.9173470312823785</v>
+        <v>0.02999053200623462</v>
       </c>
       <c r="D104">
-        <v>-0.01483768224463253</v>
+        <v>0.9876589179883433</v>
+      </c>
+      <c r="E104">
+        <v>0.0599252977249902</v>
+      </c>
+      <c r="F104">
+        <v>0.0273555701279859</v>
+      </c>
+      <c r="G104">
+        <v>0.04140132447816912</v>
       </c>
     </row>
   </sheetData>
